--- a/usps.XLSX
+++ b/usps.XLSX
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\ML\machine-learning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\ML\machine-learning\box_assigner\box_assigner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76433B9-A1C5-4B23-9E55-F83879D0CC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C167C96E-6C91-4C59-AFCB-D696BAB231DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30600" yWindow="-3645" windowWidth="30960" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36270" yWindow="165" windowWidth="23040" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ground" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve">Cubic Ft. Range Up to: </t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>Zone 8</t>
-  </si>
-  <si>
-    <t>Zone 9</t>
   </si>
   <si>
     <t>Cubic Tier 1 (0.00 - 0.10)</t>
@@ -670,7 +667,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="62">
+  <fills count="61">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -991,12 +988,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1913,14 +1904,11 @@
     <xf numFmtId="0" fontId="86" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1928,11 +1916,11 @@
     <xf numFmtId="164" fontId="85" fillId="60" borderId="0" xfId="173" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="61" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="85" fillId="59" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="85" fillId="59" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="552">
@@ -2765,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,619 +2765,596 @@
     <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5.85</v>
+      </c>
+      <c r="D2" s="4">
+        <v>6.15</v>
+      </c>
+      <c r="E2" s="4">
+        <v>6.29</v>
+      </c>
+      <c r="F2" s="4">
+        <v>6.82</v>
+      </c>
+      <c r="G2" s="4">
+        <v>7.57</v>
+      </c>
+      <c r="H2" s="4">
+        <v>7.79</v>
+      </c>
+      <c r="I2" s="4">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="5">
+        <v>6.92</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7.01</v>
+      </c>
+      <c r="D3" s="5">
+        <v>7.08</v>
+      </c>
+      <c r="E3" s="5">
+        <v>7.22</v>
+      </c>
+      <c r="F3" s="5">
+        <v>7.54</v>
+      </c>
+      <c r="G3" s="5">
+        <v>8.33</v>
+      </c>
+      <c r="H3" s="5">
+        <v>8.5299999999999994</v>
+      </c>
+      <c r="I3" s="5">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5">
-        <v>5.85</v>
-      </c>
-      <c r="C2" s="5">
-        <v>5.85</v>
-      </c>
-      <c r="D2" s="5">
-        <v>6.15</v>
-      </c>
-      <c r="E2" s="5">
-        <v>6.29</v>
-      </c>
-      <c r="F2" s="5">
-        <v>6.82</v>
-      </c>
-      <c r="G2" s="5">
-        <v>7.57</v>
-      </c>
-      <c r="H2" s="5">
-        <v>7.79</v>
-      </c>
-      <c r="I2" s="5">
+      <c r="B4" s="4">
+        <v>6.03</v>
+      </c>
+      <c r="C4" s="4">
+        <v>6.07</v>
+      </c>
+      <c r="D4" s="4">
+        <v>6.28</v>
+      </c>
+      <c r="E4" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7.36</v>
+      </c>
+      <c r="G4" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="4">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="I4" s="4">
+        <v>9.39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="5">
+        <v>7.32</v>
+      </c>
+      <c r="C5" s="5">
+        <v>7.42</v>
+      </c>
+      <c r="D5" s="5">
+        <v>7.58</v>
+      </c>
+      <c r="E5" s="5">
+        <v>7.76</v>
+      </c>
+      <c r="F5" s="5">
         <v>8.24</v>
       </c>
-      <c r="J2" s="6"/>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="7">
-        <v>6.92</v>
-      </c>
-      <c r="C3" s="7">
+      <c r="G5" s="5">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="H5" s="5">
+        <v>9.74</v>
+      </c>
+      <c r="I5" s="5">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
+        <v>6.33</v>
+      </c>
+      <c r="C6" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>6.53</v>
+      </c>
+      <c r="E6" s="4">
+        <v>6.93</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8.24</v>
+      </c>
+      <c r="G6" s="4">
+        <v>9.67</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10.16</v>
+      </c>
+      <c r="I6" s="4">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6"/>
+      <c r="B7" s="5">
+        <v>7.71</v>
+      </c>
+      <c r="C7" s="5">
+        <v>7.81</v>
+      </c>
+      <c r="D7" s="5">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E7" s="5">
+        <v>8.52</v>
+      </c>
+      <c r="F7" s="5">
+        <v>9.2100000000000009</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10.66</v>
+      </c>
+      <c r="H7" s="5">
+        <v>11.22</v>
+      </c>
+      <c r="I7" s="5">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
         <v>7.01</v>
       </c>
-      <c r="D3" s="7">
-        <v>7.08</v>
-      </c>
-      <c r="E3" s="7">
-        <v>7.22</v>
-      </c>
-      <c r="F3" s="7">
-        <v>7.54</v>
-      </c>
-      <c r="G3" s="7">
-        <v>8.33</v>
-      </c>
-      <c r="H3" s="7">
-        <v>8.5299999999999994</v>
-      </c>
-      <c r="I3" s="7">
-        <v>8.81</v>
-      </c>
-      <c r="J3" s="6"/>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5">
-        <v>6.03</v>
-      </c>
-      <c r="C4" s="5">
-        <v>6.07</v>
-      </c>
-      <c r="D4" s="5">
-        <v>6.28</v>
-      </c>
-      <c r="E4" s="5">
-        <v>6.45</v>
-      </c>
-      <c r="F4" s="5">
-        <v>7.36</v>
-      </c>
-      <c r="G4" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="H4" s="5">
-        <v>8.7799999999999994</v>
-      </c>
-      <c r="I4" s="5">
-        <v>9.39</v>
-      </c>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="7">
-        <v>7.32</v>
-      </c>
-      <c r="C5" s="7">
-        <v>7.42</v>
-      </c>
-      <c r="D5" s="7">
-        <v>7.58</v>
-      </c>
-      <c r="E5" s="7">
-        <v>7.76</v>
-      </c>
-      <c r="F5" s="7">
-        <v>8.24</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="C8" s="4">
+        <v>7.01</v>
+      </c>
+      <c r="D8" s="4">
+        <v>7.21</v>
+      </c>
+      <c r="E8" s="4">
+        <v>7.73</v>
+      </c>
+      <c r="F8" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="G8" s="4">
+        <v>10.66</v>
+      </c>
+      <c r="H8" s="4">
+        <v>11.37</v>
+      </c>
+      <c r="I8" s="4">
+        <v>12.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="5">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C9" s="5">
+        <v>8.11</v>
+      </c>
+      <c r="D9" s="5">
+        <v>8.76</v>
+      </c>
+      <c r="E9" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F9" s="5">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="G9" s="5">
+        <v>11.45</v>
+      </c>
+      <c r="H9" s="5">
+        <v>12.32</v>
+      </c>
+      <c r="I9" s="5">
+        <v>13.31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="4">
+        <v>7.39</v>
+      </c>
+      <c r="C10" s="4">
+        <v>7.39</v>
+      </c>
+      <c r="D10" s="4">
+        <v>7.59</v>
+      </c>
+      <c r="E10" s="4">
+        <v>8.15</v>
+      </c>
+      <c r="F10" s="4">
+        <v>9.61</v>
+      </c>
+      <c r="G10" s="4">
+        <v>11.35</v>
+      </c>
+      <c r="H10" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>13.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="6"/>
+      <c r="B11" s="5">
+        <v>8.25</v>
+      </c>
+      <c r="C11" s="5">
+        <v>8.31</v>
+      </c>
+      <c r="D11" s="5">
+        <v>9.11</v>
+      </c>
+      <c r="E11" s="5">
+        <v>9.65</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10.68</v>
+      </c>
+      <c r="G11" s="5">
+        <v>12.08</v>
+      </c>
+      <c r="H11" s="5">
+        <v>13.17</v>
+      </c>
+      <c r="I11" s="5">
+        <v>14.42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="C12" s="4">
+        <v>7.61</v>
+      </c>
+      <c r="D12" s="4">
+        <v>7.85</v>
+      </c>
+      <c r="E12" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F12" s="4">
+        <v>10.17</v>
+      </c>
+      <c r="G12" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="H12" s="4">
+        <v>13.03</v>
+      </c>
+      <c r="I12" s="4">
+        <v>14.78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="5">
+        <v>8.42</v>
+      </c>
+      <c r="C13" s="5">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="D13" s="5">
+        <v>9.41</v>
+      </c>
+      <c r="E13" s="5">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.27</v>
+      </c>
+      <c r="G13" s="5">
+        <v>12.68</v>
+      </c>
+      <c r="H13" s="5">
+        <v>13.97</v>
+      </c>
+      <c r="I13" s="5">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7.75</v>
+      </c>
+      <c r="D14" s="4">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="E14" s="4">
+        <v>8.93</v>
+      </c>
+      <c r="F14" s="4">
+        <v>10.74</v>
+      </c>
+      <c r="G14" s="4">
+        <v>12.62</v>
+      </c>
+      <c r="H14" s="4">
+        <v>13.93</v>
+      </c>
+      <c r="I14" s="4">
+        <v>15.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="5">
+        <v>8.65</v>
+      </c>
+      <c r="C15" s="5">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="D15" s="5">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="E15" s="5">
+        <v>10.52</v>
+      </c>
+      <c r="F15" s="5">
+        <v>11.89</v>
+      </c>
+      <c r="G15" s="5">
+        <v>13.35</v>
+      </c>
+      <c r="H15" s="5">
+        <v>14.84</v>
+      </c>
+      <c r="I15" s="5">
+        <v>16.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
+        <v>8.07</v>
+      </c>
+      <c r="C16" s="4">
+        <v>8.11</v>
+      </c>
+      <c r="D16" s="4">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="E16" s="4">
+        <v>9.84</v>
+      </c>
+      <c r="F16" s="4">
+        <v>11.4</v>
+      </c>
+      <c r="G16" s="4">
+        <v>13.2</v>
+      </c>
+      <c r="H16" s="4">
+        <v>14.92</v>
+      </c>
+      <c r="I16" s="4">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6"/>
+      <c r="B17" s="5">
+        <v>9</v>
+      </c>
+      <c r="C17" s="5">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="D17" s="5">
+        <v>10.26</v>
+      </c>
+      <c r="E17" s="5">
+        <v>11.09</v>
+      </c>
+      <c r="F17" s="5">
+        <v>12.56</v>
+      </c>
+      <c r="G17" s="5">
+        <v>14.09</v>
+      </c>
+      <c r="H17" s="5">
+        <v>15.8</v>
+      </c>
+      <c r="I17" s="5">
+        <v>17.760000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
+        <v>8.74</v>
+      </c>
+      <c r="C18" s="4">
+        <v>8.76</v>
+      </c>
+      <c r="D18" s="4">
+        <v>9.84</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10.82</v>
+      </c>
+      <c r="F18" s="4">
+        <v>12.04</v>
+      </c>
+      <c r="G18" s="4">
+        <v>14.24</v>
+      </c>
+      <c r="H18" s="4">
+        <v>15.83</v>
+      </c>
+      <c r="I18" s="4">
+        <v>18.149999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="5">
         <v>9.4700000000000006</v>
       </c>
-      <c r="H5" s="7">
-        <v>9.74</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10.119999999999999</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="5">
-        <v>6.33</v>
-      </c>
-      <c r="C6" s="5">
-        <v>6.4</v>
-      </c>
-      <c r="D6" s="5">
-        <v>6.53</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6.93</v>
-      </c>
-      <c r="F6" s="5">
-        <v>8.24</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="C19" s="5">
+        <v>9.52</v>
+      </c>
+      <c r="D19" s="5">
+        <v>10.76</v>
+      </c>
+      <c r="E19" s="5">
+        <v>11.67</v>
+      </c>
+      <c r="F19" s="5">
+        <v>13.19</v>
+      </c>
+      <c r="G19" s="5">
+        <v>14.81</v>
+      </c>
+      <c r="H19" s="5">
+        <v>16.690000000000001</v>
+      </c>
+      <c r="I19" s="5">
+        <v>18.91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4">
         <v>9.67</v>
       </c>
-      <c r="H6" s="5">
-        <v>10.16</v>
-      </c>
-      <c r="I6" s="5">
-        <v>11.07</v>
-      </c>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="7">
-        <v>7.71</v>
-      </c>
-      <c r="C7" s="7">
-        <v>7.81</v>
-      </c>
-      <c r="D7" s="7">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="E7" s="7">
-        <v>8.52</v>
-      </c>
-      <c r="F7" s="7">
-        <v>9.2100000000000009</v>
-      </c>
-      <c r="G7" s="7">
-        <v>10.66</v>
-      </c>
-      <c r="H7" s="7">
-        <v>11.22</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11.89</v>
-      </c>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="5">
-        <v>7.01</v>
-      </c>
-      <c r="C8" s="5">
-        <v>7.01</v>
-      </c>
-      <c r="D8" s="5">
-        <v>7.21</v>
-      </c>
-      <c r="E8" s="5">
-        <v>7.73</v>
-      </c>
-      <c r="F8" s="5">
-        <v>9.0500000000000007</v>
-      </c>
-      <c r="G8" s="5">
-        <v>10.66</v>
-      </c>
-      <c r="H8" s="5">
-        <v>11.37</v>
-      </c>
-      <c r="I8" s="5">
-        <v>12.78</v>
-      </c>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="7">
-        <v>8.0299999999999994</v>
-      </c>
-      <c r="C9" s="7">
-        <v>8.11</v>
-      </c>
-      <c r="D9" s="7">
-        <v>8.76</v>
-      </c>
-      <c r="E9" s="7">
-        <v>9.1999999999999993</v>
-      </c>
-      <c r="F9" s="7">
-        <v>10.039999999999999</v>
-      </c>
-      <c r="G9" s="7">
+      <c r="C20" s="4">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="D20" s="4">
+        <v>10.69</v>
+      </c>
+      <c r="E20" s="4">
+        <v>11.71</v>
+      </c>
+      <c r="F20" s="4">
+        <v>12.9</v>
+      </c>
+      <c r="G20" s="4">
+        <v>15.56</v>
+      </c>
+      <c r="H20" s="4">
+        <v>16.97</v>
+      </c>
+      <c r="I20" s="4">
+        <v>20.07</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6"/>
+      <c r="B21" s="5">
+        <v>10.29</v>
+      </c>
+      <c r="C21" s="5">
+        <v>10.33</v>
+      </c>
+      <c r="D21" s="5">
         <v>11.45</v>
       </c>
-      <c r="H9" s="7">
-        <v>12.32</v>
-      </c>
-      <c r="I9" s="7">
-        <v>13.31</v>
-      </c>
-      <c r="J9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="5">
-        <v>7.39</v>
-      </c>
-      <c r="C10" s="5">
-        <v>7.39</v>
-      </c>
-      <c r="D10" s="5">
-        <v>7.59</v>
-      </c>
-      <c r="E10" s="5">
-        <v>8.15</v>
-      </c>
-      <c r="F10" s="5">
-        <v>9.61</v>
-      </c>
-      <c r="G10" s="5">
-        <v>11.35</v>
-      </c>
-      <c r="H10" s="5">
-        <v>12.2</v>
-      </c>
-      <c r="I10" s="5">
-        <v>13.76</v>
-      </c>
-      <c r="J10" s="6"/>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="7">
-        <v>8.25</v>
-      </c>
-      <c r="C11" s="7">
-        <v>8.31</v>
-      </c>
-      <c r="D11" s="7">
-        <v>9.11</v>
-      </c>
-      <c r="E11" s="7">
-        <v>9.65</v>
-      </c>
-      <c r="F11" s="7">
-        <v>10.68</v>
-      </c>
-      <c r="G11" s="7">
-        <v>12.08</v>
-      </c>
-      <c r="H11" s="7">
-        <v>13.17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14.42</v>
-      </c>
-      <c r="J11" s="6"/>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="5">
-        <v>7.61</v>
-      </c>
-      <c r="C12" s="5">
-        <v>7.61</v>
-      </c>
-      <c r="D12" s="5">
-        <v>7.85</v>
-      </c>
-      <c r="E12" s="5">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="F12" s="5">
-        <v>10.17</v>
-      </c>
-      <c r="G12" s="5">
-        <v>12.04</v>
-      </c>
-      <c r="H12" s="5">
-        <v>13.03</v>
-      </c>
-      <c r="I12" s="5">
-        <v>14.78</v>
-      </c>
-      <c r="J12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="7">
-        <v>8.42</v>
-      </c>
-      <c r="C13" s="7">
-        <v>8.4700000000000006</v>
-      </c>
-      <c r="D13" s="7">
-        <v>9.41</v>
-      </c>
-      <c r="E13" s="7">
-        <v>10.029999999999999</v>
-      </c>
-      <c r="F13" s="7">
-        <v>11.27</v>
-      </c>
-      <c r="G13" s="7">
-        <v>12.68</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13.97</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15.45</v>
-      </c>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
-        <v>7.75</v>
-      </c>
-      <c r="C14" s="5">
-        <v>7.75</v>
-      </c>
-      <c r="D14" s="5">
-        <v>8.3800000000000008</v>
-      </c>
-      <c r="E14" s="5">
-        <v>8.93</v>
-      </c>
-      <c r="F14" s="5">
-        <v>10.74</v>
-      </c>
-      <c r="G14" s="5">
-        <v>12.62</v>
-      </c>
-      <c r="H14" s="5">
-        <v>13.93</v>
-      </c>
-      <c r="I14" s="5">
-        <v>15.61</v>
-      </c>
-      <c r="J14" s="6"/>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="7">
-        <v>8.65</v>
-      </c>
-      <c r="C15" s="7">
-        <v>8.7100000000000009</v>
-      </c>
-      <c r="D15" s="7">
-        <v>9.7899999999999991</v>
-      </c>
-      <c r="E15" s="7">
-        <v>10.52</v>
-      </c>
-      <c r="F15" s="7">
-        <v>11.89</v>
-      </c>
-      <c r="G15" s="7">
-        <v>13.35</v>
-      </c>
-      <c r="H15" s="7">
-        <v>14.84</v>
-      </c>
-      <c r="I15" s="7">
-        <v>16.55</v>
-      </c>
-      <c r="J15" s="6"/>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="5">
-        <v>8.07</v>
-      </c>
-      <c r="C16" s="5">
-        <v>8.11</v>
-      </c>
-      <c r="D16" s="5">
-        <v>9.1199999999999992</v>
-      </c>
-      <c r="E16" s="5">
-        <v>9.84</v>
-      </c>
-      <c r="F16" s="5">
-        <v>11.4</v>
-      </c>
-      <c r="G16" s="5">
-        <v>13.2</v>
-      </c>
-      <c r="H16" s="5">
-        <v>14.92</v>
-      </c>
-      <c r="I16" s="5">
-        <v>16.739999999999998</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7">
-        <v>9</v>
-      </c>
-      <c r="C17" s="7">
-        <v>9.0399999999999991</v>
-      </c>
-      <c r="D17" s="7">
-        <v>10.26</v>
-      </c>
-      <c r="E17" s="7">
-        <v>11.09</v>
-      </c>
-      <c r="F17" s="7">
-        <v>12.56</v>
-      </c>
-      <c r="G17" s="7">
-        <v>14.09</v>
-      </c>
-      <c r="H17" s="7">
-        <v>15.8</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17.760000000000002</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="5">
-        <v>8.74</v>
-      </c>
-      <c r="C18" s="5">
-        <v>8.76</v>
-      </c>
-      <c r="D18" s="5">
-        <v>9.84</v>
-      </c>
-      <c r="E18" s="5">
-        <v>10.82</v>
-      </c>
-      <c r="F18" s="5">
-        <v>12.04</v>
-      </c>
-      <c r="G18" s="5">
-        <v>14.24</v>
-      </c>
-      <c r="H18" s="5">
-        <v>15.83</v>
-      </c>
-      <c r="I18" s="5">
-        <v>18.149999999999999</v>
-      </c>
-      <c r="J18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="7">
-        <v>9.4700000000000006</v>
-      </c>
-      <c r="C19" s="7">
-        <v>9.52</v>
-      </c>
-      <c r="D19" s="7">
-        <v>10.76</v>
-      </c>
-      <c r="E19" s="7">
-        <v>11.67</v>
-      </c>
-      <c r="F19" s="7">
-        <v>13.19</v>
-      </c>
-      <c r="G19" s="7">
-        <v>14.81</v>
-      </c>
-      <c r="H19" s="7">
-        <v>16.690000000000001</v>
-      </c>
-      <c r="I19" s="7">
-        <v>18.91</v>
-      </c>
-      <c r="J19" s="6"/>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="5">
-        <v>9.67</v>
-      </c>
-      <c r="C20" s="5">
-        <v>9.7100000000000009</v>
-      </c>
-      <c r="D20" s="5">
-        <v>10.69</v>
-      </c>
-      <c r="E20" s="5">
-        <v>11.71</v>
-      </c>
-      <c r="F20" s="5">
-        <v>12.9</v>
-      </c>
-      <c r="G20" s="5">
-        <v>15.56</v>
-      </c>
-      <c r="H20" s="5">
-        <v>16.97</v>
-      </c>
-      <c r="I20" s="5">
-        <v>20.07</v>
-      </c>
-      <c r="J20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="7">
-        <v>10.29</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10.33</v>
-      </c>
-      <c r="D21" s="7">
-        <v>11.45</v>
-      </c>
-      <c r="E21" s="7">
+      <c r="E21" s="5">
         <v>12.45</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F21" s="5">
         <v>14.03</v>
       </c>
-      <c r="G21" s="7">
+      <c r="G21" s="5">
         <v>15.76</v>
       </c>
-      <c r="H21" s="7">
+      <c r="H21" s="5">
         <v>17.87</v>
       </c>
-      <c r="I21" s="7">
+      <c r="I21" s="5">
         <v>20.43</v>
       </c>
-      <c r="J21" s="6"/>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -3399,7 +3364,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -3409,7 +3374,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -3419,7 +3384,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3429,7 +3394,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -3439,7 +3404,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -3449,7 +3414,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -3459,7 +3424,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -3469,7 +3434,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
-    <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -3479,7 +3444,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
-    <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -3489,7 +3454,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -3671,16 +3636,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
